--- a/CashFlow/TWLO_cashflow.xlsx
+++ b/CashFlow/TWLO_cashflow.xlsx
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10060000.0</v>
+        <v>146000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>13008000.0</v>
+        <v>125000000.0</v>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
